--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FECBE56-68B1-B74A-BCFC-15B8C45F923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD0483E-D622-BC4A-B559-B31B6D013FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="780" windowWidth="32160" windowHeight="24340" activeTab="1" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="1340" yWindow="1980" windowWidth="32160" windowHeight="24340" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -658,6 +658,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -677,18 +689,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,10 +1061,10 @@
       <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1073,10 +1073,10 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1085,10 +1085,10 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1097,10 +1097,10 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -1109,10 +1109,10 @@
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -1121,10 +1121,10 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -1133,10 +1133,10 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -1145,10 +1145,10 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -1157,11 +1157,11 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4436F470-A09D-8C49-9B48-FB04FA2826AC}">
   <dimension ref="A2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,26 +1234,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="K2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1306,18 +1306,10 @@
       <c r="H4" s="3">
         <v>40</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1338,18 +1330,10 @@
       <c r="H5" s="3">
         <v>40</v>
       </c>
-      <c r="J5" s="3">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>50</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1366,18 +1350,10 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="3">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3">
-        <v>40</v>
-      </c>
-      <c r="M6" s="3">
-        <v>50</v>
-      </c>
-      <c r="N6" s="3">
-        <v>50</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -1388,12 +1364,8 @@
       <c r="H7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="3">
-        <v>50</v>
-      </c>
-      <c r="N7" s="3">
-        <v>100</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1528,26 +1500,26 @@
       <c r="N18" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="25"/>
+      <c r="D20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="E20" s="25"/>
+      <c r="G20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="J20" s="21" t="s">
+      <c r="H20" s="25"/>
+      <c r="J20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="M20" s="21" t="s">
+      <c r="K20" s="25"/>
+      <c r="M20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -1582,132 +1554,52 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
-        <v>0</v>
-      </c>
-      <c r="N22" s="26">
-        <v>0</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <v>70</v>
-      </c>
-      <c r="E23" s="28">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>80</v>
-      </c>
-      <c r="H23" s="28">
-        <v>0</v>
-      </c>
-      <c r="J23" s="27">
-        <v>90</v>
-      </c>
-      <c r="K23" s="28">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27">
-        <v>100</v>
-      </c>
-      <c r="N23" s="28">
-        <v>0</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3">
-        <v>60</v>
-      </c>
-      <c r="D24" s="27">
-        <v>70</v>
-      </c>
-      <c r="E24" s="28">
-        <v>70</v>
-      </c>
-      <c r="G24" s="27">
-        <v>80</v>
-      </c>
-      <c r="H24" s="28">
-        <v>80</v>
-      </c>
-      <c r="J24" s="27">
-        <v>90</v>
-      </c>
-      <c r="K24" s="28">
-        <v>90</v>
-      </c>
-      <c r="M24" s="27">
-        <v>100</v>
-      </c>
-      <c r="N24" s="28">
-        <v>100</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="27">
-        <v>70</v>
-      </c>
-      <c r="E25" s="28">
-        <v>100</v>
-      </c>
-      <c r="G25" s="27">
-        <v>80</v>
-      </c>
-      <c r="H25" s="28">
-        <v>100</v>
-      </c>
-      <c r="J25" s="27">
-        <v>90</v>
-      </c>
-      <c r="K25" s="28">
-        <v>100</v>
-      </c>
-      <c r="M25" s="27">
-        <v>100</v>
-      </c>
-      <c r="N25" s="28">
-        <v>100</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1843,16 +1735,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1873,16 +1765,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>91</v>
       </c>
@@ -2094,17 +1986,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3821B4BC-2D03-B047-9DB8-8ECD257276B0}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2219,7 +2111,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2127,7 @@
         <v>78</v>
       </c>
       <c r="C2" s="3">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2281,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2581,26 +2473,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2877,26 +2769,26 @@
       <c r="P13" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="J15" s="24" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="N15" s="24" t="s">
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="N15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -3209,30 +3101,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="Q2" s="24" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="Q2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -3599,30 +3491,30 @@
       <c r="T13" s="3"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="G15" s="24" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="G15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="L15" s="24" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="L15" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="24" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="Q15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -3711,16 +3603,16 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="18">
         <v>80</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="19">
         <v>80</v>
       </c>
-      <c r="S17" s="26">
-        <v>0</v>
-      </c>
-      <c r="T17" s="26">
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+      <c r="T17" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3761,16 +3653,16 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="20">
         <v>29</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="21">
         <v>20</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="21">
         <v>800</v>
       </c>
-      <c r="T18" s="28">
+      <c r="T18" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3811,16 +3703,16 @@
       <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="20">
         <v>41</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="21">
         <v>20</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="21">
         <v>800</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3861,16 +3753,16 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="20">
         <v>45</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="21">
         <v>20</v>
       </c>
-      <c r="S20" s="28">
-        <v>0</v>
-      </c>
-      <c r="T20" s="28">
+      <c r="S20" s="21">
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3983,30 +3875,30 @@
       <c r="T26" s="3"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="G28" s="24" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="G28" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="L28" s="24" t="s">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="L28" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="Q28" s="24" t="s">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="Q28" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -4059,202 +3951,202 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="25">
+      <c r="B30" s="18">
         <v>90</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="19">
         <v>90</v>
       </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="G30" s="25">
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
         <v>100</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="19">
         <v>100</v>
       </c>
-      <c r="I30" s="26">
-        <v>0</v>
-      </c>
-      <c r="J30" s="26">
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
         <v>110</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="19">
         <v>110</v>
       </c>
-      <c r="N30" s="26">
-        <v>0</v>
-      </c>
-      <c r="O30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="25">
+      <c r="N30" s="19">
+        <v>0</v>
+      </c>
+      <c r="O30" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="18">
         <v>120</v>
       </c>
-      <c r="R30" s="26">
+      <c r="R30" s="19">
         <v>120</v>
       </c>
-      <c r="S30" s="26">
-        <v>0</v>
-      </c>
-      <c r="T30" s="26">
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="27">
+      <c r="B31" s="20">
         <v>29</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="21">
         <v>20</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="21">
         <v>800</v>
       </c>
-      <c r="E31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="27">
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
         <v>29</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="21">
         <v>20</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="21">
         <v>800</v>
       </c>
-      <c r="J31" s="28">
-        <v>0</v>
-      </c>
-      <c r="L31" s="27">
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
         <v>29</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="21">
         <v>20</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="21">
         <v>800</v>
       </c>
-      <c r="O31" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="27">
+      <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="20">
         <v>29</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="21">
         <v>20</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="21">
         <v>800</v>
       </c>
-      <c r="T31" s="28">
+      <c r="T31" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="27">
+      <c r="B32" s="20">
         <v>41</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="21">
         <v>20</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="21">
         <v>800</v>
       </c>
-      <c r="E32" s="28">
-        <v>0</v>
-      </c>
-      <c r="G32" s="27">
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
         <v>41</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="21">
         <v>20</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="21">
         <v>800</v>
       </c>
-      <c r="J32" s="28">
-        <v>0</v>
-      </c>
-      <c r="L32" s="27">
+      <c r="J32" s="21">
+        <v>0</v>
+      </c>
+      <c r="L32" s="20">
         <v>41</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="21">
         <v>20</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="21">
         <v>800</v>
       </c>
-      <c r="O32" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="27">
+      <c r="O32" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="20">
         <v>41</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R32" s="21">
         <v>20</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="21">
         <v>800</v>
       </c>
-      <c r="T32" s="28">
+      <c r="T32" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="27">
+      <c r="B33" s="20">
         <v>45</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="21">
         <v>20</v>
       </c>
-      <c r="D33" s="28">
-        <v>0</v>
-      </c>
-      <c r="E33" s="28">
-        <v>0</v>
-      </c>
-      <c r="G33" s="27">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20">
         <v>45</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="21">
         <v>20</v>
       </c>
-      <c r="I33" s="28">
-        <v>0</v>
-      </c>
-      <c r="J33" s="28">
-        <v>0</v>
-      </c>
-      <c r="L33" s="27">
+      <c r="I33" s="21">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
         <v>45</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="21">
         <v>20</v>
       </c>
-      <c r="N33" s="28">
-        <v>0</v>
-      </c>
-      <c r="O33" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="27">
+      <c r="N33" s="21">
+        <v>0</v>
+      </c>
+      <c r="O33" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="20">
         <v>45</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="21">
         <v>20</v>
       </c>
-      <c r="S33" s="28">
-        <v>0</v>
-      </c>
-      <c r="T33" s="28">
+      <c r="S33" s="21">
+        <v>0</v>
+      </c>
+      <c r="T33" s="21">
         <v>0</v>
       </c>
     </row>

--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD0483E-D622-BC4A-B559-B31B6D013FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0F5F41-AA2A-D043-8DFA-37E84832F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1980" windowWidth="32160" windowHeight="24340" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="20780" yWindow="940" windowWidth="32160" windowHeight="24340" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="profile" sheetId="2" r:id="rId2"/>
-    <sheet name="mat" sheetId="3" r:id="rId3"/>
-    <sheet name="piezo" sheetId="4" r:id="rId4"/>
-    <sheet name="circles" sheetId="5" r:id="rId5"/>
-    <sheet name="non-circ" sheetId="7" r:id="rId6"/>
-    <sheet name="dloads" sheetId="8" r:id="rId7"/>
-    <sheet name="reinforce" sheetId="6" r:id="rId8"/>
+    <sheet name="plot" sheetId="9" r:id="rId2"/>
+    <sheet name="profile" sheetId="2" r:id="rId3"/>
+    <sheet name="mat" sheetId="3" r:id="rId4"/>
+    <sheet name="piezo" sheetId="4" r:id="rId5"/>
+    <sheet name="circles" sheetId="5" r:id="rId6"/>
+    <sheet name="non-circ" sheetId="7" r:id="rId7"/>
+    <sheet name="dloads" sheetId="8" r:id="rId8"/>
+    <sheet name="reinforce" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="crack_depth">main!$D$17</definedName>
@@ -49,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
-  <si>
-    <t>PySStab Input Template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
   <si>
     <t>X</t>
   </si>
@@ -410,6 +408,18 @@
   </si>
   <si>
     <t>Yo</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Specified radius, R</t>
+  </si>
+  <si>
+    <t>SlopeTools Input Template</t>
   </si>
 </sst>
 </file>
@@ -613,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,6 +701,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,6 +724,3259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$G$4:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$H$4:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$J$4:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$K$4:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$M$4:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$N$4:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$A$22:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$B$22:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$D$22:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$E$22:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$G$22:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$H$22:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$J$22:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$K$22:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profile!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profile Line #10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>profile!$M$22:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>profile!$N$22:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Piezometric Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>piezo!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>piezo!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Non-Circular Failure Surface</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'non-circ'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'non-circ'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="76200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$J$4:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$N$4:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$O$4:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$F$17:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$J$17:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$K$17:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dloads!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Load #8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dloads!$N$17:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dloads!$O$17:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$M$4:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$Q$4:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$R$4:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$H$17:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$L$17:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$M$17:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$R$17:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$R$17:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$C$30:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$G$30:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$H$30:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$L$30:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$M$30:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>reinforce!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforcement Line #12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>reinforce!$Q$30:$Q$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>reinforce!$R$30:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-704D-4E4F-B7C4-BDC51C67D2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17802911"/>
+        <c:axId val="17804623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17802911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17804623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="17804623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="-50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17802911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>589642</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18142</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10C0365-E66C-AF4E-8CF9-2C689A8FB03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,8 +4298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E090B-D957-7046-AD33-44E170F709C1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,107 +4312,107 @@
   <sheetData>
     <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="22"/>
     </row>
@@ -1158,14 +4424,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1">
         <v>62.4</v>
@@ -1173,7 +4439,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1181,7 +4447,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1213,11 +4479,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CEDAD3-D805-AE4D-9F0D-9E80BF51FF21}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4436F470-A09D-8C49-9B48-FB04FA2826AC}">
   <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:N25"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,56 +4516,56 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="25"/>
       <c r="G2" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="25"/>
       <c r="M2" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1501,56 +4782,56 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="25"/>
       <c r="D20" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="25"/>
       <c r="G20" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="25"/>
       <c r="J20" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="25"/>
       <c r="M20" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1735,22 +5016,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
   <dimension ref="A2:K13"/>
   <sheetViews>
@@ -1766,43 +5047,43 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="F2" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1825,7 +5106,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1851,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1877,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1982,28 +5263,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3821B4BC-2D03-B047-9DB8-8ECD257276B0}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M22" activeCellId="9" sqref="A4:B18 D4:E18 G4:H18 J4:K18 M4:N18 A22:B36 D22:E36 G22:H36 J22:K36 M22:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2106,60 +5387,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE6F868-4227-8740-A8A1-4745562882FC}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="47.83203125" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2170,21 +5453,23 @@
         <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2194,14 +5479,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2211,8 +5498,16 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="3"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2222,8 +5517,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2233,8 +5530,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2244,8 +5543,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2255,8 +5556,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2266,8 +5569,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="3"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2277,8 +5582,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="3"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2288,23 +5595,25 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D14" xr:uid="{06E9E004-FC39-FE49-926A-912F810F5089}">
-      <formula1>$I$5:$I$6</formula1>
+      <formula1>$J$5:$J$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B481A4B-5762-2B4B-BD1E-7996162F3A9D}">
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2316,75 +5625,75 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3">
         <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>174.7</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B6" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2452,12 +5761,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976BB56-7732-404C-B58A-55DA7F8052B3}">
   <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,215 +5783,131 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="F2" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="J2" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>15</v>
-      </c>
-      <c r="O4" s="3">
-        <v>12</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3">
-        <v>800</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>800</v>
-      </c>
-      <c r="J5" s="3">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3">
-        <v>800</v>
-      </c>
-      <c r="N5" s="3">
-        <v>19</v>
-      </c>
-      <c r="O5" s="3">
-        <v>12</v>
-      </c>
-      <c r="P5" s="3">
-        <v>800</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>800</v>
-      </c>
-      <c r="F6" s="3">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>800</v>
-      </c>
-      <c r="J6" s="3">
-        <v>26</v>
-      </c>
-      <c r="K6" s="3">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>800</v>
-      </c>
-      <c r="N6" s="3">
-        <v>31</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3">
-        <v>800</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>30</v>
-      </c>
-      <c r="K7" s="3">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>35</v>
-      </c>
-      <c r="O7" s="3">
-        <v>12</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -2770,215 +5995,119 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="F15" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="J15" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="N15" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="P16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>70</v>
-      </c>
-      <c r="K17" s="3">
-        <v>70</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>80</v>
-      </c>
-      <c r="O17" s="3">
-        <v>80</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3">
-        <v>800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3">
-        <v>800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>29</v>
-      </c>
-      <c r="K18" s="3">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3">
-        <v>800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>29</v>
-      </c>
-      <c r="O18" s="3">
-        <v>20</v>
-      </c>
-      <c r="P18" s="3">
-        <v>800</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>800</v>
-      </c>
-      <c r="F19" s="3">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3">
-        <v>800</v>
-      </c>
-      <c r="J19" s="3">
-        <v>41</v>
-      </c>
-      <c r="K19" s="3">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3">
-        <v>800</v>
-      </c>
-      <c r="N19" s="3">
-        <v>41</v>
-      </c>
-      <c r="O19" s="3">
-        <v>20</v>
-      </c>
-      <c r="P19" s="3">
-        <v>800</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45</v>
-      </c>
-      <c r="G20" s="3">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>45</v>
-      </c>
-      <c r="K20" s="3">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>45</v>
-      </c>
-      <c r="O20" s="3">
-        <v>20</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -3079,12 +6208,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2765E7-278C-9440-A01D-A07DABAA8547}">
   <dimension ref="B2:V39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="B30" sqref="B30:T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3102,25 +6231,25 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="G2" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="L2" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="Q2" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
@@ -3128,55 +6257,55 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="V3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
@@ -3229,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
@@ -3492,25 +6621,25 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="G15" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="L15" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="Q15" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -3518,253 +6647,125 @@
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="L16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="N16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="S16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>25</v>
-      </c>
-      <c r="H17" s="3">
-        <v>20</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>70</v>
-      </c>
-      <c r="M17" s="3">
-        <v>70</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>80</v>
-      </c>
-      <c r="R17" s="19">
-        <v>80</v>
-      </c>
-      <c r="S17" s="19">
-        <v>0</v>
-      </c>
-      <c r="T17" s="19">
-        <v>0</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3">
-        <v>800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>29</v>
-      </c>
-      <c r="H18" s="3">
-        <v>20</v>
-      </c>
-      <c r="I18" s="3">
-        <v>800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>29</v>
-      </c>
-      <c r="M18" s="3">
-        <v>20</v>
-      </c>
-      <c r="N18" s="3">
-        <v>800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>29</v>
-      </c>
-      <c r="R18" s="21">
-        <v>20</v>
-      </c>
-      <c r="S18" s="21">
-        <v>800</v>
-      </c>
-      <c r="T18" s="21">
-        <v>0</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>800</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>41</v>
-      </c>
-      <c r="H19" s="3">
-        <v>20</v>
-      </c>
-      <c r="I19" s="3">
-        <v>800</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>41</v>
-      </c>
-      <c r="M19" s="3">
-        <v>20</v>
-      </c>
-      <c r="N19" s="3">
-        <v>800</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>41</v>
-      </c>
-      <c r="R19" s="21">
-        <v>20</v>
-      </c>
-      <c r="S19" s="21">
-        <v>800</v>
-      </c>
-      <c r="T19" s="21">
-        <v>0</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45</v>
-      </c>
-      <c r="H20" s="3">
-        <v>20</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>45</v>
-      </c>
-      <c r="M20" s="3">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>45</v>
-      </c>
-      <c r="R20" s="21">
-        <v>20</v>
-      </c>
-      <c r="S20" s="21">
-        <v>0</v>
-      </c>
-      <c r="T20" s="21">
-        <v>0</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -3876,25 +6877,25 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="L28" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="Q28" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
@@ -3902,253 +6903,125 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="L29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="N29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="S29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="18">
-        <v>90</v>
-      </c>
-      <c r="C30" s="19">
-        <v>90</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
-        <v>100</v>
-      </c>
-      <c r="H30" s="19">
-        <v>100</v>
-      </c>
-      <c r="I30" s="19">
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <v>110</v>
-      </c>
-      <c r="M30" s="19">
-        <v>110</v>
-      </c>
-      <c r="N30" s="19">
-        <v>0</v>
-      </c>
-      <c r="O30" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="18">
-        <v>120</v>
-      </c>
-      <c r="R30" s="19">
-        <v>120</v>
-      </c>
-      <c r="S30" s="19">
-        <v>0</v>
-      </c>
-      <c r="T30" s="19">
-        <v>0</v>
-      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <v>29</v>
-      </c>
-      <c r="C31" s="21">
-        <v>20</v>
-      </c>
-      <c r="D31" s="21">
-        <v>800</v>
-      </c>
-      <c r="E31" s="21">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20">
-        <v>29</v>
-      </c>
-      <c r="H31" s="21">
-        <v>20</v>
-      </c>
-      <c r="I31" s="21">
-        <v>800</v>
-      </c>
-      <c r="J31" s="21">
-        <v>0</v>
-      </c>
-      <c r="L31" s="20">
-        <v>29</v>
-      </c>
-      <c r="M31" s="21">
-        <v>20</v>
-      </c>
-      <c r="N31" s="21">
-        <v>800</v>
-      </c>
-      <c r="O31" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="20">
-        <v>29</v>
-      </c>
-      <c r="R31" s="21">
-        <v>20</v>
-      </c>
-      <c r="S31" s="21">
-        <v>800</v>
-      </c>
-      <c r="T31" s="21">
-        <v>0</v>
-      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="20">
-        <v>41</v>
-      </c>
-      <c r="C32" s="21">
-        <v>20</v>
-      </c>
-      <c r="D32" s="21">
-        <v>800</v>
-      </c>
-      <c r="E32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <v>41</v>
-      </c>
-      <c r="H32" s="21">
-        <v>20</v>
-      </c>
-      <c r="I32" s="21">
-        <v>800</v>
-      </c>
-      <c r="J32" s="21">
-        <v>0</v>
-      </c>
-      <c r="L32" s="20">
-        <v>41</v>
-      </c>
-      <c r="M32" s="21">
-        <v>20</v>
-      </c>
-      <c r="N32" s="21">
-        <v>800</v>
-      </c>
-      <c r="O32" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="20">
-        <v>41</v>
-      </c>
-      <c r="R32" s="21">
-        <v>20</v>
-      </c>
-      <c r="S32" s="21">
-        <v>800</v>
-      </c>
-      <c r="T32" s="21">
-        <v>0</v>
-      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="20">
-        <v>45</v>
-      </c>
-      <c r="C33" s="21">
-        <v>20</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20">
-        <v>45</v>
-      </c>
-      <c r="H33" s="21">
-        <v>20</v>
-      </c>
-      <c r="I33" s="21">
-        <v>0</v>
-      </c>
-      <c r="J33" s="21">
-        <v>0</v>
-      </c>
-      <c r="L33" s="20">
-        <v>45</v>
-      </c>
-      <c r="M33" s="21">
-        <v>20</v>
-      </c>
-      <c r="N33" s="21">
-        <v>0</v>
-      </c>
-      <c r="O33" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="20">
-        <v>45</v>
-      </c>
-      <c r="R33" s="21">
-        <v>20</v>
-      </c>
-      <c r="S33" s="21">
-        <v>0</v>
-      </c>
-      <c r="T33" s="21">
-        <v>0</v>
-      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>

--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0F5F41-AA2A-D043-8DFA-37E84832F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485FA8E-B5EB-9845-BEB9-526B8B9BB297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="940" windowWidth="32160" windowHeight="24340" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="32780" yWindow="760" windowWidth="32160" windowHeight="24340" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
   <si>
     <t>X</t>
   </si>
@@ -420,6 +420,50 @@
   </si>
   <si>
     <t>SlopeTools Input Template</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>Strength options</t>
+  </si>
+  <si>
+    <t>Traditional Mohr-Coulomb failure envelope (c and phi)</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>c/p ratio with reference elevation</t>
+  </si>
+  <si>
+    <t>r-elev</t>
+  </si>
+  <si>
+    <t>c/p</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(c/p)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -623,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +724,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -701,14 +748,99 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4298,7 +4430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E090B-D957-7046-AD33-44E170F709C1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4327,10 +4459,10 @@
       <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4339,10 +4471,10 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -4351,10 +4483,10 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -4363,10 +4495,10 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -4375,10 +4507,10 @@
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4387,10 +4519,10 @@
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -4399,10 +4531,10 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -4411,10 +4543,10 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -4423,11 +4555,11 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
@@ -4515,26 +4647,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="H2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="M2" s="25" t="s">
+      <c r="K2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -4781,26 +4913,26 @@
       <c r="N18" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="G20" s="25" t="s">
+      <c r="E20" s="26"/>
+      <c r="G20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="J20" s="25" t="s">
+      <c r="H20" s="26"/>
+      <c r="J20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="M20" s="25" t="s">
+      <c r="K20" s="26"/>
+      <c r="M20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -5016,16 +5148,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5033,34 +5165,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="8" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="I2" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="J2" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="22"/>
+      <c r="N2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -5068,100 +5205,134 @@
         <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>130</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3">
         <v>200</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>28</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3">
+        <v>120</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="N4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>120</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>32</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>132</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3">
         <v>400</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>27</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="1">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5172,8 +5343,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5184,8 +5359,15 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -5196,9 +5378,18 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5209,9 +5400,18 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5222,9 +5422,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5235,9 +5439,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -5248,15 +5456,41 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{339A18D9-2C3F-2E47-9927-C099D7AA59DB}">
-      <formula1>$J$5:$J$6</formula1>
+  <conditionalFormatting sqref="D4:E13">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$C4="cp"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:G13">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$C4="mc"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L13">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$C4="mc"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K13">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$C4="cp"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{339A18D9-2C3F-2E47-9927-C099D7AA59DB}">
+      <formula1>$N$9:$N$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C13" xr:uid="{D6CE31A3-485A-D842-BAD0-54ACE6AD61ED}">
+      <formula1>$N$5:$N$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5274,10 +5508,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -5461,7 +5695,6 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="29"/>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
@@ -5480,7 +5713,6 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="29"/>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
@@ -5499,7 +5731,6 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="29"/>
       <c r="J7" s="1" t="s">
         <v>96</v>
       </c>
@@ -5518,7 +5749,6 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -5531,7 +5761,6 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -5544,7 +5773,6 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -5557,7 +5785,6 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5570,7 +5797,6 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -5583,7 +5809,6 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -5596,7 +5821,6 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5782,26 +6006,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="N2" s="28" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -5994,26 +6218,26 @@
       <c r="P13" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="F15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="J15" s="28" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="J15" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="N15" s="28" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="N15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -6230,30 +6454,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="28" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="Q2" s="28" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6620,30 +6844,30 @@
       <c r="T13" s="3"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="G15" s="28" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="G15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="L15" s="28" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="Q15" s="28" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="Q15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -6876,30 +7100,30 @@
       <c r="T26" s="3"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="G28" s="28" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="L28" s="28" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="L28" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="Q28" s="28" t="s">
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="Q28" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">

--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485FA8E-B5EB-9845-BEB9-526B8B9BB297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA983CD-D4FE-594F-8472-DE7BE8B328F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32780" yWindow="760" windowWidth="32160" windowHeight="24340" activeTab="3" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="32780" yWindow="760" windowWidth="32160" windowHeight="24340" activeTab="7" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -727,6 +727,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,19 +749,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -781,62 +778,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4459,10 +4401,10 @@
       <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4471,10 +4413,10 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -4483,10 +4425,10 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -4495,10 +4437,10 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -4507,10 +4449,10 @@
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4519,10 +4461,10 @@
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -4531,10 +4473,10 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -4543,10 +4485,10 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -4555,11 +4497,11 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
@@ -4647,26 +4589,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="H2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="26"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -4913,26 +4855,26 @@
       <c r="N18" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="D20" s="26" t="s">
+      <c r="B20" s="27"/>
+      <c r="D20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="G20" s="26" t="s">
+      <c r="E20" s="27"/>
+      <c r="G20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="J20" s="26" t="s">
+      <c r="H20" s="27"/>
+      <c r="J20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="M20" s="26" t="s">
+      <c r="K20" s="27"/>
+      <c r="M20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="26"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -5148,16 +5090,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5167,7 +5109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA88A0E-2BF5-FE49-9603-08BE4D91829B}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5179,19 +5121,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="I2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="22"/>
       <c r="N2" t="s">
         <v>90</v>
@@ -5466,23 +5408,23 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:E13">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$C4="cp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G13">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$C4="mc"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L13">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$C4="mc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K13">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C4="cp"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L13">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$C4="mc"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5508,10 +5450,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -5989,8 +5931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976BB56-7732-404C-B58A-55DA7F8052B3}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6006,26 +5948,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="J2" s="29" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6073,7 +6015,7 @@
         <v>84</v>
       </c>
       <c r="D4" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -6093,7 +6035,7 @@
         <v>84</v>
       </c>
       <c r="D5" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6218,26 +6160,26 @@
       <c r="P13" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="F15" s="29" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="J15" s="29" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="J15" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="N15" s="29" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="N15" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -6454,30 +6396,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="L2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6844,30 +6786,30 @@
       <c r="T13" s="3"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="L15" s="29" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="L15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="Q15" s="29" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="Q15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -7100,30 +7042,30 @@
       <c r="T26" s="3"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="G28" s="29" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="G28" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="L28" s="29" t="s">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="L28" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="Q28" s="29" t="s">
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="Q28" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">

--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA983CD-D4FE-594F-8472-DE7BE8B328F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4F9BC-FCE4-1743-8139-CF62ED3B7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32780" yWindow="760" windowWidth="32160" windowHeight="24340" activeTab="7" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="12660" yWindow="1220" windowWidth="32160" windowHeight="24340" activeTab="1" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1692,10 +1692,10 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>40</c:v>
@@ -4556,7 +4556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CEDAD3-D805-AE4D-9F0D-9E80BF51FF21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -5090,16 +5090,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5779,7 +5779,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5828,7 +5828,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>48</v>
@@ -5845,7 +5845,7 @@
         <v>220</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>48</v>
@@ -5931,7 +5931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976BB56-7732-404C-B58A-55DA7F8052B3}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/input_template.xlsx
+++ b/input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/slopetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4F9BC-FCE4-1743-8139-CF62ED3B7E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543402D-81BD-D540-8CA7-368B8E7A5FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12660" yWindow="1220" windowWidth="32160" windowHeight="24340" activeTab="1" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
@@ -1677,7 +1677,7 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5779,7 +5779,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B6" s="3">
         <v>40</v>
